--- a/datasets/stock_of_Prismatic_Evolutions.xlsx
+++ b/datasets/stock_of_Prismatic_Evolutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristóbal\Desktop\CriStO\Documentos\Proyectos\Pokemon_TCG\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B632CBD-6D39-4D84-9662-895D4929257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C128A685-6D33-40E9-9765-2ADA6211F401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1665" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="E403" sqref="E403"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
